--- a/data/a1_vokabeln.xlsx
+++ b/data/a1_vokabeln.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexe.DESKTOP-LD8HUV5\Desktop\prog\website\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexe.DESKTOP-LD8HUV5\Desktop\prog\website\Gerping\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="667">
   <si>
     <t>der Automat</t>
   </si>
@@ -71,9 +71,6 @@
     <t>die SMS</t>
   </si>
   <si>
-    <t>das Taxi</t>
-  </si>
-  <si>
     <t>das Telefon</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>das Beispiel</t>
   </si>
   <si>
-    <t>der Comic</t>
-  </si>
-  <si>
     <t>die Entschuldigung</t>
   </si>
   <si>
@@ -233,9 +227,6 @@
     <t>das WC</t>
   </si>
   <si>
-    <t>der Bekannte</t>
-  </si>
-  <si>
     <t>die E-Mail</t>
   </si>
   <si>
@@ -644,9 +635,6 @@
     <t>die Butter</t>
   </si>
   <si>
-    <t>die Cola</t>
-  </si>
-  <si>
     <t>das Ei</t>
   </si>
   <si>
@@ -662,9 +650,6 @@
     <t>das Hähnchen</t>
   </si>
   <si>
-    <t>der Joghurt</t>
-  </si>
-  <si>
     <t>die Karotte</t>
   </si>
   <si>
@@ -746,9 +731,6 @@
     <t>das Viertel</t>
   </si>
   <si>
-    <t>der Bankangestellte</t>
-  </si>
-  <si>
     <t>der Berg</t>
   </si>
   <si>
@@ -1577,9 +1559,6 @@
     <t>die Reiselust</t>
   </si>
   <si>
-    <t>der Verwandte</t>
-  </si>
-  <si>
     <t>die Autobahn</t>
   </si>
   <si>
@@ -1892,9 +1871,6 @@
     <t>die Zeitung</t>
   </si>
   <si>
-    <t>der Erwachsene</t>
-  </si>
-  <si>
     <t>die Kreuzung</t>
   </si>
   <si>
@@ -1931,9 +1907,6 @@
     <t>das Ostern</t>
   </si>
   <si>
-    <t>das Silvester</t>
-  </si>
-  <si>
     <t>das Sonderangebot</t>
   </si>
   <si>
@@ -2022,6 +1995,36 @@
   </si>
   <si>
     <t>der Papierstreifen</t>
+  </si>
+  <si>
+    <t>der die Bankangestellte</t>
+  </si>
+  <si>
+    <t>der die Deutsche</t>
+  </si>
+  <si>
+    <t>der das Comic</t>
+  </si>
+  <si>
+    <t>der das Joghurt</t>
+  </si>
+  <si>
+    <t>das der Silvester</t>
+  </si>
+  <si>
+    <t>das der Taxi</t>
+  </si>
+  <si>
+    <t>die das Cola</t>
+  </si>
+  <si>
+    <t>der die Verwandte</t>
+  </si>
+  <si>
+    <t>der die Bekannte</t>
+  </si>
+  <si>
+    <t>der die Erwachsene</t>
   </si>
 </sst>
 </file>
@@ -2339,10 +2342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B676"/>
+  <dimension ref="A1:B677"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C679" sqref="C679"/>
+    <sheetView tabSelected="1" topLeftCell="A614" workbookViewId="0">
+      <selection activeCell="J634" sqref="J634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2488,7 +2491,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>662</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2497,7 +2500,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2506,7 +2509,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2515,7 +2518,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2524,7 +2527,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2533,7 +2536,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>659</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2542,7 +2545,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2551,7 +2554,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2560,7 +2563,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2569,7 +2572,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2578,7 +2581,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2587,7 +2590,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2596,7 +2599,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2605,7 +2608,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2614,7 +2617,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2623,7 +2626,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2632,7 +2635,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2641,7 +2644,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2650,7 +2653,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2659,7 +2662,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2668,7 +2671,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2677,7 +2680,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2686,7 +2689,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2695,7 +2698,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2704,7 +2707,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2713,7 +2716,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2722,7 +2725,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2731,7 +2734,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2740,7 +2743,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2749,7 +2752,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2758,7 +2761,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2767,7 +2770,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2776,7 +2779,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2785,7 +2788,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2794,7 +2797,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2803,7 +2806,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2812,7 +2815,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2821,7 +2824,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2830,7 +2833,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2839,7 +2842,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2848,7 +2851,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2857,7 +2860,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2866,7 +2869,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2875,7 +2878,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2884,7 +2887,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2893,7 +2896,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2902,7 +2905,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2911,7 +2914,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2920,7 +2923,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2929,7 +2932,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2938,7 +2941,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2947,7 +2950,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2956,7 +2959,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2965,7 +2968,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2974,7 +2977,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>665</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2983,7 +2986,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2992,7 +2995,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -3001,7 +3004,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -3010,7 +3013,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -3019,7 +3022,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -3028,7 +3031,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -3037,7 +3040,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -3046,7 +3049,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -3055,7 +3058,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -3064,7 +3067,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -3073,7 +3076,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -3082,7 +3085,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -3091,7 +3094,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -3100,7 +3103,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -3109,7 +3112,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -3118,7 +3121,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -3127,7 +3130,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -3136,7 +3139,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -3145,7 +3148,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -3154,7 +3157,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -3163,7 +3166,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -3172,7 +3175,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -3181,7 +3184,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -3190,7 +3193,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -3199,7 +3202,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -3208,7 +3211,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -3217,7 +3220,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -3226,7 +3229,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -3235,7 +3238,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -3244,7 +3247,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -3253,7 +3256,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -3262,7 +3265,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -3271,7 +3274,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -3280,7 +3283,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -3289,7 +3292,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -3298,7 +3301,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -3307,7 +3310,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -3316,7 +3319,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -3325,7 +3328,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -3334,7 +3337,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -3343,7 +3346,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -3352,7 +3355,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -3361,7 +3364,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -3370,7 +3373,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -3379,7 +3382,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -3388,7 +3391,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -3397,7 +3400,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -3406,7 +3409,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -3415,7 +3418,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -3424,7 +3427,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -3433,7 +3436,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -3442,7 +3445,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -3451,7 +3454,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -3460,7 +3463,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -3469,7 +3472,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -3478,7 +3481,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -3487,7 +3490,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -3496,7 +3499,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -3505,7 +3508,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -3514,7 +3517,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -3523,7 +3526,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -3532,7 +3535,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -3541,7 +3544,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -3550,7 +3553,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -3559,7 +3562,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -3568,7 +3571,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -3577,7 +3580,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -3586,7 +3589,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -3595,7 +3598,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -3604,7 +3607,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -3613,7 +3616,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -3622,7 +3625,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -3631,7 +3634,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -3640,7 +3643,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -3649,7 +3652,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -3658,7 +3661,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3667,7 +3670,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -3676,7 +3679,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -3685,7 +3688,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3694,7 +3697,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -3703,7 +3706,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -3712,7 +3715,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3721,7 +3724,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -3730,7 +3733,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -3739,7 +3742,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -3748,7 +3751,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3757,7 +3760,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -3766,7 +3769,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -3775,7 +3778,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -3784,7 +3787,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -3793,7 +3796,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -3802,7 +3805,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -3811,7 +3814,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -3820,7 +3823,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -3829,7 +3832,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -3838,7 +3841,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -3847,7 +3850,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -3856,7 +3859,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -3865,7 +3868,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -3874,7 +3877,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -3883,7 +3886,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3892,7 +3895,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -3901,7 +3904,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -3910,7 +3913,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -3919,7 +3922,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -3928,7 +3931,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -3937,7 +3940,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -3946,7 +3949,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -3955,7 +3958,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -3964,7 +3967,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3973,7 +3976,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -3982,7 +3985,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -3991,7 +3994,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -4000,7 +4003,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -4009,7 +4012,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -4018,7 +4021,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -4027,7 +4030,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -4036,7 +4039,7 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -4045,7 +4048,7 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -4054,7 +4057,7 @@
         <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -4063,7 +4066,7 @@
         <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -4072,7 +4075,7 @@
         <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -4081,7 +4084,7 @@
         <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -4090,7 +4093,7 @@
         <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -4099,7 +4102,7 @@
         <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -4108,7 +4111,7 @@
         <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -4117,7 +4120,7 @@
         <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -4126,7 +4129,7 @@
         <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -4135,7 +4138,7 @@
         <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -4144,7 +4147,7 @@
         <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -4153,7 +4156,7 @@
         <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -4162,7 +4165,7 @@
         <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -4171,7 +4174,7 @@
         <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -4180,7 +4183,7 @@
         <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -4189,7 +4192,7 @@
         <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -4198,7 +4201,7 @@
         <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -4207,7 +4210,7 @@
         <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -4216,7 +4219,7 @@
         <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -4225,7 +4228,7 @@
         <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>206</v>
+        <v>663</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -4234,7 +4237,7 @@
         <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -4243,7 +4246,7 @@
         <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -4252,7 +4255,7 @@
         <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -4261,7 +4264,7 @@
         <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -4270,7 +4273,7 @@
         <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -4279,7 +4282,7 @@
         <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>212</v>
+        <v>660</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -4288,7 +4291,7 @@
         <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -4297,7 +4300,7 @@
         <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -4306,7 +4309,7 @@
         <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -4315,7 +4318,7 @@
         <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -4324,7 +4327,7 @@
         <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -4333,7 +4336,7 @@
         <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -4342,7 +4345,7 @@
         <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -4351,7 +4354,7 @@
         <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -4360,7 +4363,7 @@
         <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -4369,7 +4372,7 @@
         <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -4378,7 +4381,7 @@
         <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -4387,7 +4390,7 @@
         <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -4396,7 +4399,7 @@
         <v>228</v>
       </c>
       <c r="B228" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -4405,7 +4408,7 @@
         <v>229</v>
       </c>
       <c r="B229" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -4414,7 +4417,7 @@
         <v>230</v>
       </c>
       <c r="B230" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -4423,7 +4426,7 @@
         <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -4432,7 +4435,7 @@
         <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -4441,7 +4444,7 @@
         <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -4450,7 +4453,7 @@
         <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -4459,7 +4462,7 @@
         <v>235</v>
       </c>
       <c r="B235" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -4468,7 +4471,7 @@
         <v>236</v>
       </c>
       <c r="B236" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -4477,7 +4480,7 @@
         <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -4486,7 +4489,7 @@
         <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -4495,7 +4498,7 @@
         <v>239</v>
       </c>
       <c r="B239" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -4504,7 +4507,7 @@
         <v>240</v>
       </c>
       <c r="B240" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -4513,7 +4516,7 @@
         <v>241</v>
       </c>
       <c r="B241" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -4522,7 +4525,7 @@
         <v>242</v>
       </c>
       <c r="B242" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -4531,7 +4534,7 @@
         <v>243</v>
       </c>
       <c r="B243" t="s">
-        <v>240</v>
+        <v>657</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -4540,7 +4543,7 @@
         <v>244</v>
       </c>
       <c r="B244" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -4549,7 +4552,7 @@
         <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -4558,7 +4561,7 @@
         <v>246</v>
       </c>
       <c r="B246" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -4567,7 +4570,7 @@
         <v>247</v>
       </c>
       <c r="B247" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -4576,7 +4579,7 @@
         <v>248</v>
       </c>
       <c r="B248" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -4585,7 +4588,7 @@
         <v>249</v>
       </c>
       <c r="B249" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -4594,7 +4597,7 @@
         <v>250</v>
       </c>
       <c r="B250" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -4603,7 +4606,7 @@
         <v>251</v>
       </c>
       <c r="B251" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -4612,7 +4615,7 @@
         <v>252</v>
       </c>
       <c r="B252" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -4621,7 +4624,7 @@
         <v>253</v>
       </c>
       <c r="B253" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -4630,7 +4633,7 @@
         <v>254</v>
       </c>
       <c r="B254" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -4639,7 +4642,7 @@
         <v>255</v>
       </c>
       <c r="B255" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -4648,7 +4651,7 @@
         <v>256</v>
       </c>
       <c r="B256" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -4657,7 +4660,7 @@
         <v>257</v>
       </c>
       <c r="B257" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -4666,7 +4669,7 @@
         <v>258</v>
       </c>
       <c r="B258" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -4675,7 +4678,7 @@
         <v>259</v>
       </c>
       <c r="B259" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -4684,7 +4687,7 @@
         <v>260</v>
       </c>
       <c r="B260" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -4693,7 +4696,7 @@
         <v>261</v>
       </c>
       <c r="B261" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -4702,7 +4705,7 @@
         <v>262</v>
       </c>
       <c r="B262" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -4711,7 +4714,7 @@
         <v>263</v>
       </c>
       <c r="B263" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -4720,7 +4723,7 @@
         <v>264</v>
       </c>
       <c r="B264" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -4729,7 +4732,7 @@
         <v>265</v>
       </c>
       <c r="B265" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -4738,7 +4741,7 @@
         <v>266</v>
       </c>
       <c r="B266" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -4747,7 +4750,7 @@
         <v>267</v>
       </c>
       <c r="B267" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -4756,7 +4759,7 @@
         <v>268</v>
       </c>
       <c r="B268" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -4765,7 +4768,7 @@
         <v>269</v>
       </c>
       <c r="B269" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -4774,7 +4777,7 @@
         <v>270</v>
       </c>
       <c r="B270" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -4783,7 +4786,7 @@
         <v>271</v>
       </c>
       <c r="B271" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -4792,7 +4795,7 @@
         <v>272</v>
       </c>
       <c r="B272" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -4801,7 +4804,7 @@
         <v>273</v>
       </c>
       <c r="B273" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -4810,7 +4813,7 @@
         <v>274</v>
       </c>
       <c r="B274" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -4819,7 +4822,7 @@
         <v>275</v>
       </c>
       <c r="B275" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -4828,7 +4831,7 @@
         <v>276</v>
       </c>
       <c r="B276" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -4837,7 +4840,7 @@
         <v>277</v>
       </c>
       <c r="B277" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -4846,7 +4849,7 @@
         <v>278</v>
       </c>
       <c r="B278" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -4855,7 +4858,7 @@
         <v>279</v>
       </c>
       <c r="B279" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -4864,7 +4867,7 @@
         <v>280</v>
       </c>
       <c r="B280" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -4873,7 +4876,7 @@
         <v>281</v>
       </c>
       <c r="B281" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -4882,7 +4885,7 @@
         <v>282</v>
       </c>
       <c r="B282" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -4891,7 +4894,7 @@
         <v>283</v>
       </c>
       <c r="B283" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -4900,7 +4903,7 @@
         <v>284</v>
       </c>
       <c r="B284" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -4909,7 +4912,7 @@
         <v>285</v>
       </c>
       <c r="B285" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -4918,7 +4921,7 @@
         <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -4927,7 +4930,7 @@
         <v>287</v>
       </c>
       <c r="B287" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -4936,7 +4939,7 @@
         <v>288</v>
       </c>
       <c r="B288" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -4945,7 +4948,7 @@
         <v>289</v>
       </c>
       <c r="B289" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -4954,7 +4957,7 @@
         <v>290</v>
       </c>
       <c r="B290" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -4963,7 +4966,7 @@
         <v>291</v>
       </c>
       <c r="B291" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -4972,7 +4975,7 @@
         <v>292</v>
       </c>
       <c r="B292" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -4981,7 +4984,7 @@
         <v>293</v>
       </c>
       <c r="B293" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -4990,7 +4993,7 @@
         <v>294</v>
       </c>
       <c r="B294" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -4999,7 +5002,7 @@
         <v>295</v>
       </c>
       <c r="B295" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -5008,7 +5011,7 @@
         <v>296</v>
       </c>
       <c r="B296" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -5017,7 +5020,7 @@
         <v>297</v>
       </c>
       <c r="B297" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -5026,7 +5029,7 @@
         <v>298</v>
       </c>
       <c r="B298" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -5035,7 +5038,7 @@
         <v>299</v>
       </c>
       <c r="B299" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -5044,7 +5047,7 @@
         <v>300</v>
       </c>
       <c r="B300" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -5053,7 +5056,7 @@
         <v>301</v>
       </c>
       <c r="B301" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -5062,7 +5065,7 @@
         <v>302</v>
       </c>
       <c r="B302" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -5071,7 +5074,7 @@
         <v>303</v>
       </c>
       <c r="B303" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -5080,7 +5083,7 @@
         <v>304</v>
       </c>
       <c r="B304" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -5089,7 +5092,7 @@
         <v>305</v>
       </c>
       <c r="B305" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -5098,7 +5101,7 @@
         <v>306</v>
       </c>
       <c r="B306" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -5107,7 +5110,7 @@
         <v>307</v>
       </c>
       <c r="B307" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -5116,7 +5119,7 @@
         <v>308</v>
       </c>
       <c r="B308" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -5125,7 +5128,7 @@
         <v>309</v>
       </c>
       <c r="B309" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -5134,7 +5137,7 @@
         <v>310</v>
       </c>
       <c r="B310" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -5143,7 +5146,7 @@
         <v>311</v>
       </c>
       <c r="B311" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -5152,7 +5155,7 @@
         <v>312</v>
       </c>
       <c r="B312" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -5161,7 +5164,7 @@
         <v>313</v>
       </c>
       <c r="B313" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -5170,7 +5173,7 @@
         <v>314</v>
       </c>
       <c r="B314" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -5179,7 +5182,7 @@
         <v>315</v>
       </c>
       <c r="B315" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -5188,7 +5191,7 @@
         <v>316</v>
       </c>
       <c r="B316" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -5197,7 +5200,7 @@
         <v>317</v>
       </c>
       <c r="B317" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -5206,7 +5209,7 @@
         <v>318</v>
       </c>
       <c r="B318" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -5215,7 +5218,7 @@
         <v>319</v>
       </c>
       <c r="B319" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -5224,7 +5227,7 @@
         <v>320</v>
       </c>
       <c r="B320" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -5233,7 +5236,7 @@
         <v>321</v>
       </c>
       <c r="B321" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -5242,7 +5245,7 @@
         <v>322</v>
       </c>
       <c r="B322" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -5251,7 +5254,7 @@
         <v>323</v>
       </c>
       <c r="B323" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -5260,7 +5263,7 @@
         <v>324</v>
       </c>
       <c r="B324" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -5269,7 +5272,7 @@
         <v>325</v>
       </c>
       <c r="B325" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -5278,7 +5281,7 @@
         <v>326</v>
       </c>
       <c r="B326" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -5287,7 +5290,7 @@
         <v>327</v>
       </c>
       <c r="B327" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -5296,7 +5299,7 @@
         <v>328</v>
       </c>
       <c r="B328" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -5305,7 +5308,7 @@
         <v>329</v>
       </c>
       <c r="B329" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -5314,7 +5317,7 @@
         <v>330</v>
       </c>
       <c r="B330" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -5323,7 +5326,7 @@
         <v>331</v>
       </c>
       <c r="B331" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -5332,7 +5335,7 @@
         <v>332</v>
       </c>
       <c r="B332" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -5341,7 +5344,7 @@
         <v>333</v>
       </c>
       <c r="B333" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -5350,7 +5353,7 @@
         <v>334</v>
       </c>
       <c r="B334" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -5359,7 +5362,7 @@
         <v>335</v>
       </c>
       <c r="B335" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -5368,7 +5371,7 @@
         <v>336</v>
       </c>
       <c r="B336" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -5377,7 +5380,7 @@
         <v>337</v>
       </c>
       <c r="B337" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -5386,7 +5389,7 @@
         <v>338</v>
       </c>
       <c r="B338" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -5395,7 +5398,7 @@
         <v>339</v>
       </c>
       <c r="B339" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -5404,7 +5407,7 @@
         <v>340</v>
       </c>
       <c r="B340" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -5413,7 +5416,7 @@
         <v>341</v>
       </c>
       <c r="B341" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -5422,7 +5425,7 @@
         <v>342</v>
       </c>
       <c r="B342" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -5431,7 +5434,7 @@
         <v>343</v>
       </c>
       <c r="B343" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -5440,7 +5443,7 @@
         <v>344</v>
       </c>
       <c r="B344" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -5449,7 +5452,7 @@
         <v>345</v>
       </c>
       <c r="B345" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -5458,7 +5461,7 @@
         <v>346</v>
       </c>
       <c r="B346" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -5467,7 +5470,7 @@
         <v>347</v>
       </c>
       <c r="B347" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -5476,7 +5479,7 @@
         <v>348</v>
       </c>
       <c r="B348" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -5485,7 +5488,7 @@
         <v>349</v>
       </c>
       <c r="B349" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -5494,7 +5497,7 @@
         <v>350</v>
       </c>
       <c r="B350" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -5503,7 +5506,7 @@
         <v>351</v>
       </c>
       <c r="B351" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -5512,7 +5515,7 @@
         <v>352</v>
       </c>
       <c r="B352" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -5521,7 +5524,7 @@
         <v>353</v>
       </c>
       <c r="B353" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -5530,7 +5533,7 @@
         <v>354</v>
       </c>
       <c r="B354" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -5539,7 +5542,7 @@
         <v>355</v>
       </c>
       <c r="B355" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -5548,7 +5551,7 @@
         <v>356</v>
       </c>
       <c r="B356" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -5557,7 +5560,7 @@
         <v>357</v>
       </c>
       <c r="B357" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -5566,7 +5569,7 @@
         <v>358</v>
       </c>
       <c r="B358" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -5575,7 +5578,7 @@
         <v>359</v>
       </c>
       <c r="B359" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -5584,7 +5587,7 @@
         <v>360</v>
       </c>
       <c r="B360" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -5593,7 +5596,7 @@
         <v>361</v>
       </c>
       <c r="B361" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -5602,7 +5605,7 @@
         <v>362</v>
       </c>
       <c r="B362" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -5611,7 +5614,7 @@
         <v>363</v>
       </c>
       <c r="B363" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -5629,7 +5632,7 @@
         <v>365</v>
       </c>
       <c r="B365" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -5638,7 +5641,7 @@
         <v>366</v>
       </c>
       <c r="B366" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -5647,7 +5650,7 @@
         <v>367</v>
       </c>
       <c r="B367" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -5656,7 +5659,7 @@
         <v>368</v>
       </c>
       <c r="B368" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -5665,7 +5668,7 @@
         <v>369</v>
       </c>
       <c r="B369" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -5674,7 +5677,7 @@
         <v>370</v>
       </c>
       <c r="B370" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -5683,7 +5686,7 @@
         <v>371</v>
       </c>
       <c r="B371" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -5692,7 +5695,7 @@
         <v>372</v>
       </c>
       <c r="B372" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -5701,7 +5704,7 @@
         <v>373</v>
       </c>
       <c r="B373" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -5710,7 +5713,7 @@
         <v>374</v>
       </c>
       <c r="B374" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -5719,7 +5722,7 @@
         <v>375</v>
       </c>
       <c r="B375" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -5728,7 +5731,7 @@
         <v>376</v>
       </c>
       <c r="B376" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -5737,7 +5740,7 @@
         <v>377</v>
       </c>
       <c r="B377" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -5746,7 +5749,7 @@
         <v>378</v>
       </c>
       <c r="B378" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -5755,7 +5758,7 @@
         <v>379</v>
       </c>
       <c r="B379" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -5764,7 +5767,7 @@
         <v>380</v>
       </c>
       <c r="B380" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -5773,7 +5776,7 @@
         <v>381</v>
       </c>
       <c r="B381" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -5782,7 +5785,7 @@
         <v>382</v>
       </c>
       <c r="B382" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -5791,7 +5794,7 @@
         <v>383</v>
       </c>
       <c r="B383" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -5800,7 +5803,7 @@
         <v>384</v>
       </c>
       <c r="B384" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -5809,7 +5812,7 @@
         <v>385</v>
       </c>
       <c r="B385" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -5818,7 +5821,7 @@
         <v>386</v>
       </c>
       <c r="B386" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -5827,7 +5830,7 @@
         <v>387</v>
       </c>
       <c r="B387" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -5836,7 +5839,7 @@
         <v>388</v>
       </c>
       <c r="B388" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -5845,7 +5848,7 @@
         <v>389</v>
       </c>
       <c r="B389" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -5854,7 +5857,7 @@
         <v>390</v>
       </c>
       <c r="B390" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -5863,7 +5866,7 @@
         <v>391</v>
       </c>
       <c r="B391" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -5872,7 +5875,7 @@
         <v>392</v>
       </c>
       <c r="B392" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -5881,7 +5884,7 @@
         <v>393</v>
       </c>
       <c r="B393" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -5890,7 +5893,7 @@
         <v>394</v>
       </c>
       <c r="B394" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -5899,7 +5902,7 @@
         <v>395</v>
       </c>
       <c r="B395" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -5908,7 +5911,7 @@
         <v>396</v>
       </c>
       <c r="B396" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -5917,7 +5920,7 @@
         <v>397</v>
       </c>
       <c r="B397" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -5926,7 +5929,7 @@
         <v>398</v>
       </c>
       <c r="B398" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -5935,7 +5938,7 @@
         <v>399</v>
       </c>
       <c r="B399" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -5944,7 +5947,7 @@
         <v>400</v>
       </c>
       <c r="B400" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -5953,7 +5956,7 @@
         <v>401</v>
       </c>
       <c r="B401" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -5962,7 +5965,7 @@
         <v>402</v>
       </c>
       <c r="B402" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -5971,7 +5974,7 @@
         <v>403</v>
       </c>
       <c r="B403" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -5980,7 +5983,7 @@
         <v>404</v>
       </c>
       <c r="B404" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -5989,7 +5992,7 @@
         <v>405</v>
       </c>
       <c r="B405" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -5998,7 +6001,7 @@
         <v>406</v>
       </c>
       <c r="B406" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -6007,7 +6010,7 @@
         <v>407</v>
       </c>
       <c r="B407" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -6016,7 +6019,7 @@
         <v>408</v>
       </c>
       <c r="B408" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -6025,7 +6028,7 @@
         <v>409</v>
       </c>
       <c r="B409" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -6034,7 +6037,7 @@
         <v>410</v>
       </c>
       <c r="B410" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -6043,7 +6046,7 @@
         <v>411</v>
       </c>
       <c r="B411" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -6052,7 +6055,7 @@
         <v>412</v>
       </c>
       <c r="B412" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -6061,7 +6064,7 @@
         <v>413</v>
       </c>
       <c r="B413" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -6070,7 +6073,7 @@
         <v>414</v>
       </c>
       <c r="B414" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -6079,7 +6082,7 @@
         <v>415</v>
       </c>
       <c r="B415" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -6088,7 +6091,7 @@
         <v>416</v>
       </c>
       <c r="B416" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -6097,7 +6100,7 @@
         <v>417</v>
       </c>
       <c r="B417" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -6106,7 +6109,7 @@
         <v>418</v>
       </c>
       <c r="B418" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
@@ -6115,7 +6118,7 @@
         <v>419</v>
       </c>
       <c r="B419" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -6124,7 +6127,7 @@
         <v>420</v>
       </c>
       <c r="B420" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -6133,7 +6136,7 @@
         <v>421</v>
       </c>
       <c r="B421" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -6142,7 +6145,7 @@
         <v>422</v>
       </c>
       <c r="B422" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -6151,7 +6154,7 @@
         <v>423</v>
       </c>
       <c r="B423" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -6160,7 +6163,7 @@
         <v>424</v>
       </c>
       <c r="B424" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -6169,7 +6172,7 @@
         <v>425</v>
       </c>
       <c r="B425" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
@@ -6178,7 +6181,7 @@
         <v>426</v>
       </c>
       <c r="B426" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
@@ -6187,7 +6190,7 @@
         <v>427</v>
       </c>
       <c r="B427" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
@@ -6196,7 +6199,7 @@
         <v>428</v>
       </c>
       <c r="B428" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
@@ -6205,7 +6208,7 @@
         <v>429</v>
       </c>
       <c r="B429" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
@@ -6214,7 +6217,7 @@
         <v>430</v>
       </c>
       <c r="B430" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
@@ -6223,7 +6226,7 @@
         <v>431</v>
       </c>
       <c r="B431" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
@@ -6232,7 +6235,7 @@
         <v>432</v>
       </c>
       <c r="B432" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -6241,7 +6244,7 @@
         <v>433</v>
       </c>
       <c r="B433" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
@@ -6250,7 +6253,7 @@
         <v>434</v>
       </c>
       <c r="B434" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -6259,7 +6262,7 @@
         <v>435</v>
       </c>
       <c r="B435" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -6268,7 +6271,7 @@
         <v>436</v>
       </c>
       <c r="B436" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
@@ -6277,7 +6280,7 @@
         <v>437</v>
       </c>
       <c r="B437" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -6286,7 +6289,7 @@
         <v>438</v>
       </c>
       <c r="B438" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -6295,7 +6298,7 @@
         <v>439</v>
       </c>
       <c r="B439" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
@@ -6304,7 +6307,7 @@
         <v>440</v>
       </c>
       <c r="B440" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
@@ -6313,7 +6316,7 @@
         <v>441</v>
       </c>
       <c r="B441" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
@@ -6322,7 +6325,7 @@
         <v>442</v>
       </c>
       <c r="B442" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
@@ -6331,7 +6334,7 @@
         <v>443</v>
       </c>
       <c r="B443" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
@@ -6340,7 +6343,7 @@
         <v>444</v>
       </c>
       <c r="B444" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -6349,7 +6352,7 @@
         <v>445</v>
       </c>
       <c r="B445" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
@@ -6358,7 +6361,7 @@
         <v>446</v>
       </c>
       <c r="B446" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
@@ -6367,7 +6370,7 @@
         <v>447</v>
       </c>
       <c r="B447" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -6376,7 +6379,7 @@
         <v>448</v>
       </c>
       <c r="B448" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
@@ -6385,7 +6388,7 @@
         <v>449</v>
       </c>
       <c r="B449" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
@@ -6394,7 +6397,7 @@
         <v>450</v>
       </c>
       <c r="B450" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
@@ -6403,7 +6406,7 @@
         <v>451</v>
       </c>
       <c r="B451" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
@@ -6412,7 +6415,7 @@
         <v>452</v>
       </c>
       <c r="B452" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
@@ -6421,7 +6424,7 @@
         <v>453</v>
       </c>
       <c r="B453" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
@@ -6430,7 +6433,7 @@
         <v>454</v>
       </c>
       <c r="B454" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
@@ -6439,7 +6442,7 @@
         <v>455</v>
       </c>
       <c r="B455" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
@@ -6448,7 +6451,7 @@
         <v>456</v>
       </c>
       <c r="B456" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
@@ -6457,7 +6460,7 @@
         <v>457</v>
       </c>
       <c r="B457" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
@@ -6466,7 +6469,7 @@
         <v>458</v>
       </c>
       <c r="B458" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
@@ -6475,7 +6478,7 @@
         <v>459</v>
       </c>
       <c r="B459" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
@@ -6484,7 +6487,7 @@
         <v>460</v>
       </c>
       <c r="B460" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
@@ -6493,7 +6496,7 @@
         <v>461</v>
       </c>
       <c r="B461" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
@@ -6502,7 +6505,7 @@
         <v>462</v>
       </c>
       <c r="B462" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -6511,7 +6514,7 @@
         <v>463</v>
       </c>
       <c r="B463" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
@@ -6520,7 +6523,7 @@
         <v>464</v>
       </c>
       <c r="B464" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
@@ -6529,7 +6532,7 @@
         <v>465</v>
       </c>
       <c r="B465" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -6538,7 +6541,7 @@
         <v>466</v>
       </c>
       <c r="B466" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
@@ -6547,7 +6550,7 @@
         <v>467</v>
       </c>
       <c r="B467" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
@@ -6556,7 +6559,7 @@
         <v>468</v>
       </c>
       <c r="B468" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
@@ -6565,7 +6568,7 @@
         <v>469</v>
       </c>
       <c r="B469" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
@@ -6574,7 +6577,7 @@
         <v>470</v>
       </c>
       <c r="B470" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
@@ -6583,7 +6586,7 @@
         <v>471</v>
       </c>
       <c r="B471" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
@@ -6592,7 +6595,7 @@
         <v>472</v>
       </c>
       <c r="B472" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
@@ -6601,7 +6604,7 @@
         <v>473</v>
       </c>
       <c r="B473" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -6610,7 +6613,7 @@
         <v>474</v>
       </c>
       <c r="B474" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
@@ -6619,7 +6622,7 @@
         <v>475</v>
       </c>
       <c r="B475" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
@@ -6628,7 +6631,7 @@
         <v>476</v>
       </c>
       <c r="B476" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
@@ -6637,7 +6640,7 @@
         <v>477</v>
       </c>
       <c r="B477" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
@@ -6646,7 +6649,7 @@
         <v>478</v>
       </c>
       <c r="B478" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
@@ -6655,7 +6658,7 @@
         <v>479</v>
       </c>
       <c r="B479" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
@@ -6664,7 +6667,7 @@
         <v>480</v>
       </c>
       <c r="B480" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
@@ -6673,7 +6676,7 @@
         <v>481</v>
       </c>
       <c r="B481" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
@@ -6682,7 +6685,7 @@
         <v>482</v>
       </c>
       <c r="B482" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
@@ -6691,7 +6694,7 @@
         <v>483</v>
       </c>
       <c r="B483" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
@@ -6700,7 +6703,7 @@
         <v>484</v>
       </c>
       <c r="B484" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
@@ -6709,7 +6712,7 @@
         <v>485</v>
       </c>
       <c r="B485" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
@@ -6718,7 +6721,7 @@
         <v>486</v>
       </c>
       <c r="B486" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
@@ -6727,7 +6730,7 @@
         <v>487</v>
       </c>
       <c r="B487" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
@@ -6736,7 +6739,7 @@
         <v>488</v>
       </c>
       <c r="B488" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
@@ -6745,7 +6748,7 @@
         <v>489</v>
       </c>
       <c r="B489" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
@@ -6754,7 +6757,7 @@
         <v>490</v>
       </c>
       <c r="B490" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
@@ -6763,7 +6766,7 @@
         <v>491</v>
       </c>
       <c r="B491" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
@@ -6772,7 +6775,7 @@
         <v>492</v>
       </c>
       <c r="B492" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
@@ -6781,7 +6784,7 @@
         <v>493</v>
       </c>
       <c r="B493" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
@@ -6790,7 +6793,7 @@
         <v>494</v>
       </c>
       <c r="B494" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
@@ -6799,7 +6802,7 @@
         <v>495</v>
       </c>
       <c r="B495" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
@@ -6808,7 +6811,7 @@
         <v>496</v>
       </c>
       <c r="B496" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
@@ -6817,7 +6820,7 @@
         <v>497</v>
       </c>
       <c r="B497" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
@@ -6826,7 +6829,7 @@
         <v>498</v>
       </c>
       <c r="B498" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
@@ -6835,7 +6838,7 @@
         <v>499</v>
       </c>
       <c r="B499" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
@@ -6844,7 +6847,7 @@
         <v>500</v>
       </c>
       <c r="B500" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
@@ -6853,7 +6856,7 @@
         <v>501</v>
       </c>
       <c r="B501" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
@@ -6862,7 +6865,7 @@
         <v>502</v>
       </c>
       <c r="B502" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
@@ -6871,7 +6874,7 @@
         <v>503</v>
       </c>
       <c r="B503" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
@@ -6880,7 +6883,7 @@
         <v>504</v>
       </c>
       <c r="B504" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
@@ -6889,7 +6892,7 @@
         <v>505</v>
       </c>
       <c r="B505" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
@@ -6898,7 +6901,7 @@
         <v>506</v>
       </c>
       <c r="B506" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
@@ -6907,7 +6910,7 @@
         <v>507</v>
       </c>
       <c r="B507" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
@@ -6916,7 +6919,7 @@
         <v>508</v>
       </c>
       <c r="B508" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
@@ -6925,7 +6928,7 @@
         <v>509</v>
       </c>
       <c r="B509" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
@@ -6934,7 +6937,7 @@
         <v>510</v>
       </c>
       <c r="B510" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
@@ -6943,7 +6946,7 @@
         <v>511</v>
       </c>
       <c r="B511" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
@@ -6952,7 +6955,7 @@
         <v>512</v>
       </c>
       <c r="B512" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
@@ -6961,7 +6964,7 @@
         <v>513</v>
       </c>
       <c r="B513" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
@@ -6970,7 +6973,7 @@
         <v>514</v>
       </c>
       <c r="B514" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
@@ -6979,7 +6982,7 @@
         <v>515</v>
       </c>
       <c r="B515" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
@@ -6988,7 +6991,7 @@
         <v>516</v>
       </c>
       <c r="B516" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
@@ -6997,7 +7000,7 @@
         <v>517</v>
       </c>
       <c r="B517" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
@@ -7006,7 +7009,7 @@
         <v>518</v>
       </c>
       <c r="B518" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
@@ -7015,7 +7018,7 @@
         <v>519</v>
       </c>
       <c r="B519" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
@@ -7024,7 +7027,7 @@
         <v>520</v>
       </c>
       <c r="B520" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
@@ -7033,7 +7036,7 @@
         <v>521</v>
       </c>
       <c r="B521" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
@@ -7042,7 +7045,7 @@
         <v>522</v>
       </c>
       <c r="B522" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
@@ -7051,7 +7054,7 @@
         <v>523</v>
       </c>
       <c r="B523" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
@@ -7060,7 +7063,7 @@
         <v>524</v>
       </c>
       <c r="B524" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
@@ -7069,7 +7072,7 @@
         <v>525</v>
       </c>
       <c r="B525" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
@@ -7078,7 +7081,7 @@
         <v>526</v>
       </c>
       <c r="B526" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
@@ -7087,7 +7090,7 @@
         <v>527</v>
       </c>
       <c r="B527" t="s">
-        <v>517</v>
+        <v>664</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
@@ -7096,7 +7099,7 @@
         <v>528</v>
       </c>
       <c r="B528" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
@@ -7105,7 +7108,7 @@
         <v>529</v>
       </c>
       <c r="B529" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
@@ -7114,7 +7117,7 @@
         <v>530</v>
       </c>
       <c r="B530" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
@@ -7123,7 +7126,7 @@
         <v>531</v>
       </c>
       <c r="B531" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
@@ -7132,7 +7135,7 @@
         <v>532</v>
       </c>
       <c r="B532" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
@@ -7141,7 +7144,7 @@
         <v>533</v>
       </c>
       <c r="B533" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
@@ -7150,7 +7153,7 @@
         <v>534</v>
       </c>
       <c r="B534" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
@@ -7159,7 +7162,7 @@
         <v>535</v>
       </c>
       <c r="B535" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
@@ -7168,7 +7171,7 @@
         <v>536</v>
       </c>
       <c r="B536" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
@@ -7177,7 +7180,7 @@
         <v>537</v>
       </c>
       <c r="B537" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
@@ -7186,7 +7189,7 @@
         <v>538</v>
       </c>
       <c r="B538" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
@@ -7195,7 +7198,7 @@
         <v>539</v>
       </c>
       <c r="B539" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
@@ -7204,7 +7207,7 @@
         <v>540</v>
       </c>
       <c r="B540" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
@@ -7213,7 +7216,7 @@
         <v>541</v>
       </c>
       <c r="B541" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
@@ -7222,7 +7225,7 @@
         <v>542</v>
       </c>
       <c r="B542" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
@@ -7231,7 +7234,7 @@
         <v>543</v>
       </c>
       <c r="B543" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
@@ -7240,7 +7243,7 @@
         <v>544</v>
       </c>
       <c r="B544" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
@@ -7249,7 +7252,7 @@
         <v>545</v>
       </c>
       <c r="B545" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
@@ -7258,7 +7261,7 @@
         <v>546</v>
       </c>
       <c r="B546" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
@@ -7267,7 +7270,7 @@
         <v>547</v>
       </c>
       <c r="B547" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
@@ -7276,7 +7279,7 @@
         <v>548</v>
       </c>
       <c r="B548" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
@@ -7285,7 +7288,7 @@
         <v>549</v>
       </c>
       <c r="B549" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
@@ -7294,7 +7297,7 @@
         <v>550</v>
       </c>
       <c r="B550" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
@@ -7303,7 +7306,7 @@
         <v>551</v>
       </c>
       <c r="B551" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
@@ -7312,7 +7315,7 @@
         <v>552</v>
       </c>
       <c r="B552" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
@@ -7321,7 +7324,7 @@
         <v>553</v>
       </c>
       <c r="B553" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
@@ -7330,7 +7333,7 @@
         <v>554</v>
       </c>
       <c r="B554" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
@@ -7339,7 +7342,7 @@
         <v>555</v>
       </c>
       <c r="B555" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
@@ -7348,7 +7351,7 @@
         <v>556</v>
       </c>
       <c r="B556" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
@@ -7357,7 +7360,7 @@
         <v>557</v>
       </c>
       <c r="B557" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
@@ -7366,7 +7369,7 @@
         <v>558</v>
       </c>
       <c r="B558" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
@@ -7375,7 +7378,7 @@
         <v>559</v>
       </c>
       <c r="B559" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
@@ -7384,7 +7387,7 @@
         <v>560</v>
       </c>
       <c r="B560" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
@@ -7393,7 +7396,7 @@
         <v>561</v>
       </c>
       <c r="B561" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
@@ -7402,7 +7405,7 @@
         <v>562</v>
       </c>
       <c r="B562" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
@@ -7411,7 +7414,7 @@
         <v>563</v>
       </c>
       <c r="B563" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
@@ -7420,7 +7423,7 @@
         <v>564</v>
       </c>
       <c r="B564" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
@@ -7429,7 +7432,7 @@
         <v>565</v>
       </c>
       <c r="B565" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
@@ -7438,7 +7441,7 @@
         <v>566</v>
       </c>
       <c r="B566" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
@@ -7447,7 +7450,7 @@
         <v>567</v>
       </c>
       <c r="B567" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
@@ -7456,7 +7459,7 @@
         <v>568</v>
       </c>
       <c r="B568" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
@@ -7465,7 +7468,7 @@
         <v>569</v>
       </c>
       <c r="B569" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
@@ -7474,7 +7477,7 @@
         <v>570</v>
       </c>
       <c r="B570" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
@@ -7483,7 +7486,7 @@
         <v>571</v>
       </c>
       <c r="B571" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
@@ -7492,7 +7495,7 @@
         <v>572</v>
       </c>
       <c r="B572" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
@@ -7501,7 +7504,7 @@
         <v>573</v>
       </c>
       <c r="B573" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
@@ -7510,7 +7513,7 @@
         <v>574</v>
       </c>
       <c r="B574" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
@@ -7519,7 +7522,7 @@
         <v>575</v>
       </c>
       <c r="B575" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
@@ -7528,7 +7531,7 @@
         <v>576</v>
       </c>
       <c r="B576" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
@@ -7537,7 +7540,7 @@
         <v>577</v>
       </c>
       <c r="B577" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
@@ -7546,7 +7549,7 @@
         <v>578</v>
       </c>
       <c r="B578" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
@@ -7555,7 +7558,7 @@
         <v>579</v>
       </c>
       <c r="B579" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
@@ -7564,7 +7567,7 @@
         <v>580</v>
       </c>
       <c r="B580" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
@@ -7573,7 +7576,7 @@
         <v>581</v>
       </c>
       <c r="B581" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
@@ -7582,7 +7585,7 @@
         <v>582</v>
       </c>
       <c r="B582" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
@@ -7591,7 +7594,7 @@
         <v>583</v>
       </c>
       <c r="B583" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
@@ -7600,7 +7603,7 @@
         <v>584</v>
       </c>
       <c r="B584" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
@@ -7609,7 +7612,7 @@
         <v>585</v>
       </c>
       <c r="B585" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
@@ -7618,7 +7621,7 @@
         <v>586</v>
       </c>
       <c r="B586" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
@@ -7627,7 +7630,7 @@
         <v>587</v>
       </c>
       <c r="B587" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
@@ -7636,7 +7639,7 @@
         <v>588</v>
       </c>
       <c r="B588" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
@@ -7645,7 +7648,7 @@
         <v>589</v>
       </c>
       <c r="B589" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
@@ -7654,7 +7657,7 @@
         <v>590</v>
       </c>
       <c r="B590" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
@@ -7663,7 +7666,7 @@
         <v>591</v>
       </c>
       <c r="B591" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
@@ -7672,7 +7675,7 @@
         <v>592</v>
       </c>
       <c r="B592" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
@@ -7681,7 +7684,7 @@
         <v>593</v>
       </c>
       <c r="B593" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
@@ -7690,7 +7693,7 @@
         <v>594</v>
       </c>
       <c r="B594" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
@@ -7699,7 +7702,7 @@
         <v>595</v>
       </c>
       <c r="B595" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
@@ -7708,7 +7711,7 @@
         <v>596</v>
       </c>
       <c r="B596" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
@@ -7717,7 +7720,7 @@
         <v>597</v>
       </c>
       <c r="B597" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
@@ -7726,7 +7729,7 @@
         <v>598</v>
       </c>
       <c r="B598" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
@@ -7735,7 +7738,7 @@
         <v>599</v>
       </c>
       <c r="B599" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
@@ -7744,7 +7747,7 @@
         <v>600</v>
       </c>
       <c r="B600" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
@@ -7753,7 +7756,7 @@
         <v>601</v>
       </c>
       <c r="B601" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
@@ -7762,7 +7765,7 @@
         <v>602</v>
       </c>
       <c r="B602" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
@@ -7771,7 +7774,7 @@
         <v>603</v>
       </c>
       <c r="B603" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
@@ -7780,7 +7783,7 @@
         <v>604</v>
       </c>
       <c r="B604" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
@@ -7789,7 +7792,7 @@
         <v>605</v>
       </c>
       <c r="B605" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
@@ -7798,7 +7801,7 @@
         <v>606</v>
       </c>
       <c r="B606" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
@@ -7807,7 +7810,7 @@
         <v>607</v>
       </c>
       <c r="B607" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
@@ -7816,7 +7819,7 @@
         <v>608</v>
       </c>
       <c r="B608" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
@@ -7825,7 +7828,7 @@
         <v>609</v>
       </c>
       <c r="B609" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
@@ -7834,7 +7837,7 @@
         <v>610</v>
       </c>
       <c r="B610" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
@@ -7843,7 +7846,7 @@
         <v>611</v>
       </c>
       <c r="B611" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
@@ -7852,7 +7855,7 @@
         <v>612</v>
       </c>
       <c r="B612" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
@@ -7861,7 +7864,7 @@
         <v>613</v>
       </c>
       <c r="B613" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
@@ -7870,7 +7873,7 @@
         <v>614</v>
       </c>
       <c r="B614" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
@@ -7879,7 +7882,7 @@
         <v>615</v>
       </c>
       <c r="B615" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
@@ -7888,7 +7891,7 @@
         <v>616</v>
       </c>
       <c r="B616" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
@@ -7897,7 +7900,7 @@
         <v>617</v>
       </c>
       <c r="B617" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
@@ -7906,7 +7909,7 @@
         <v>618</v>
       </c>
       <c r="B618" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
@@ -7915,7 +7918,7 @@
         <v>619</v>
       </c>
       <c r="B619" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
@@ -7924,7 +7927,7 @@
         <v>620</v>
       </c>
       <c r="B620" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
@@ -7933,7 +7936,7 @@
         <v>621</v>
       </c>
       <c r="B621" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
@@ -7942,7 +7945,7 @@
         <v>622</v>
       </c>
       <c r="B622" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
@@ -7951,7 +7954,7 @@
         <v>623</v>
       </c>
       <c r="B623" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
@@ -7960,7 +7963,7 @@
         <v>624</v>
       </c>
       <c r="B624" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
@@ -7969,7 +7972,7 @@
         <v>625</v>
       </c>
       <c r="B625" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
@@ -7978,7 +7981,7 @@
         <v>626</v>
       </c>
       <c r="B626" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
@@ -7987,7 +7990,7 @@
         <v>627</v>
       </c>
       <c r="B627" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
@@ -7996,7 +7999,7 @@
         <v>628</v>
       </c>
       <c r="B628" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
@@ -8005,7 +8008,7 @@
         <v>629</v>
       </c>
       <c r="B629" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
@@ -8014,7 +8017,7 @@
         <v>630</v>
       </c>
       <c r="B630" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
@@ -8023,7 +8026,7 @@
         <v>631</v>
       </c>
       <c r="B631" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
@@ -8032,7 +8035,7 @@
         <v>632</v>
       </c>
       <c r="B632" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
@@ -8041,7 +8044,7 @@
         <v>633</v>
       </c>
       <c r="B633" t="s">
-        <v>622</v>
+        <v>666</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
@@ -8050,7 +8053,7 @@
         <v>634</v>
       </c>
       <c r="B634" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
@@ -8059,7 +8062,7 @@
         <v>635</v>
       </c>
       <c r="B635" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
@@ -8068,7 +8071,7 @@
         <v>636</v>
       </c>
       <c r="B636" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
@@ -8077,7 +8080,7 @@
         <v>637</v>
       </c>
       <c r="B637" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
@@ -8086,7 +8089,7 @@
         <v>638</v>
       </c>
       <c r="B638" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
@@ -8095,7 +8098,7 @@
         <v>639</v>
       </c>
       <c r="B639" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
@@ -8104,7 +8107,7 @@
         <v>640</v>
       </c>
       <c r="B640" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
@@ -8113,7 +8116,7 @@
         <v>641</v>
       </c>
       <c r="B641" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
@@ -8122,7 +8125,7 @@
         <v>642</v>
       </c>
       <c r="B642" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
@@ -8131,7 +8134,7 @@
         <v>643</v>
       </c>
       <c r="B643" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
@@ -8140,7 +8143,7 @@
         <v>644</v>
       </c>
       <c r="B644" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
@@ -8149,7 +8152,7 @@
         <v>645</v>
       </c>
       <c r="B645" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
@@ -8158,7 +8161,7 @@
         <v>646</v>
       </c>
       <c r="B646" t="s">
-        <v>635</v>
+        <v>661</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
@@ -8167,7 +8170,7 @@
         <v>647</v>
       </c>
       <c r="B647" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
@@ -8176,7 +8179,7 @@
         <v>648</v>
       </c>
       <c r="B648" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
@@ -8185,7 +8188,7 @@
         <v>649</v>
       </c>
       <c r="B649" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
@@ -8194,7 +8197,7 @@
         <v>650</v>
       </c>
       <c r="B650" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
@@ -8203,7 +8206,7 @@
         <v>651</v>
       </c>
       <c r="B651" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
@@ -8212,7 +8215,7 @@
         <v>652</v>
       </c>
       <c r="B652" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
@@ -8221,7 +8224,7 @@
         <v>653</v>
       </c>
       <c r="B653" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
@@ -8230,7 +8233,7 @@
         <v>654</v>
       </c>
       <c r="B654" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
@@ -8239,7 +8242,7 @@
         <v>655</v>
       </c>
       <c r="B655" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
@@ -8248,7 +8251,7 @@
         <v>656</v>
       </c>
       <c r="B656" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
@@ -8257,7 +8260,7 @@
         <v>657</v>
       </c>
       <c r="B657" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
@@ -8266,7 +8269,7 @@
         <v>658</v>
       </c>
       <c r="B658" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
@@ -8275,7 +8278,7 @@
         <v>659</v>
       </c>
       <c r="B659" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
@@ -8284,7 +8287,7 @@
         <v>660</v>
       </c>
       <c r="B660" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
@@ -8293,7 +8296,7 @@
         <v>661</v>
       </c>
       <c r="B661" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
@@ -8302,7 +8305,7 @@
         <v>662</v>
       </c>
       <c r="B662" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
@@ -8311,7 +8314,7 @@
         <v>663</v>
       </c>
       <c r="B663" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
@@ -8320,7 +8323,7 @@
         <v>664</v>
       </c>
       <c r="B664" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
@@ -8329,7 +8332,7 @@
         <v>665</v>
       </c>
       <c r="B665" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
@@ -8338,7 +8341,7 @@
         <v>666</v>
       </c>
       <c r="B666" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
@@ -8347,7 +8350,7 @@
         <v>667</v>
       </c>
       <c r="B667" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
@@ -8356,7 +8359,7 @@
         <v>668</v>
       </c>
       <c r="B668" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
@@ -8365,7 +8368,7 @@
         <v>669</v>
       </c>
       <c r="B669" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
@@ -8374,7 +8377,7 @@
         <v>670</v>
       </c>
       <c r="B670" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
@@ -8383,7 +8386,7 @@
         <v>671</v>
       </c>
       <c r="B671" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
@@ -8392,7 +8395,7 @@
         <v>672</v>
       </c>
       <c r="B672" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
@@ -8401,7 +8404,7 @@
         <v>673</v>
       </c>
       <c r="B673" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
@@ -8410,7 +8413,7 @@
         <v>674</v>
       </c>
       <c r="B674" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
@@ -8419,7 +8422,7 @@
         <v>675</v>
       </c>
       <c r="B675" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
@@ -8428,7 +8431,16 @@
         <v>676</v>
       </c>
       <c r="B676" t="s">
-        <v>665</v>
+        <v>656</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A677">
+        <f>ROW()</f>
+        <v>677</v>
+      </c>
+      <c r="B677" t="s">
+        <v>658</v>
       </c>
     </row>
   </sheetData>
